--- a/laselva.xlsx
+++ b/laselva.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutiérrez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bde8adda742d7e1d/Curriculum/14_ Colaboracion/2023 La Selva LTREB/Long term/laseva_LTREB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA967756-1AD9-4121-95B1-DAAEA9786B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{AA967756-1AD9-4121-95B1-DAAEA9786B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51192476-2585-47B1-8C7F-C890252EF9EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD2C4922-FF16-43F6-B8CF-6D2FAF45D30C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FD2C4922-FF16-43F6-B8CF-6D2FAF45D30C}"/>
   </bookViews>
   <sheets>
     <sheet name="carapa" sheetId="1" r:id="rId1"/>
+    <sheet name="saltito" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
   <si>
     <t>ONI-First</t>
   </si>
@@ -485,12 +486,15 @@
   <si>
     <t>Dec-2024</t>
   </si>
+  <si>
+    <t>Oct-2006</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +512,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,13 +540,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BC6AF7-68DF-48B7-8965-01C0F909F467}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E38:E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,4 +8867,7623 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7A707-703E-4E5E-A432-E7BE98A446A2}">
+  <dimension ref="A1:S130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.36</v>
+      </c>
+      <c r="B2">
+        <v>-0.49</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.371</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.1</v>
+      </c>
+      <c r="B3">
+        <v>-0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>16</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>9</v>
+      </c>
+      <c r="S3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B4">
+        <v>-0.36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>-0.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.861</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.22</v>
+      </c>
+      <c r="B6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.355</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>6</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.9</v>
+      </c>
+      <c r="B8">
+        <v>1.22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>18</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6</v>
+      </c>
+      <c r="R8" s="4">
+        <v>9</v>
+      </c>
+      <c r="S8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.14</v>
+      </c>
+      <c r="B9">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.33</v>
+      </c>
+      <c r="B10">
+        <v>1.9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>6</v>
+      </c>
+      <c r="S10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.4</v>
+      </c>
+      <c r="B11">
+        <v>2.14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.39</v>
+      </c>
+      <c r="B12">
+        <v>2.33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="M12" s="1">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="B13">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.113</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>4</v>
+      </c>
+      <c r="R13" s="4">
+        <v>6</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.93</v>
+      </c>
+      <c r="B14">
+        <v>2.39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>14</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>7</v>
+      </c>
+      <c r="S14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.44</v>
+      </c>
+      <c r="B15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>6</v>
+      </c>
+      <c r="S15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.99</v>
+      </c>
+      <c r="B16">
+        <v>1.93</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>8</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.45</v>
+      </c>
+      <c r="B17">
+        <v>1.44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>6</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.13</v>
+      </c>
+      <c r="B18">
+        <v>0.99</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.333</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>4</v>
+      </c>
+      <c r="S18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-0.78</v>
+      </c>
+      <c r="B19">
+        <v>0.45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.641</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>5</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="B20">
+        <v>-0.13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>6</v>
+      </c>
+      <c r="S20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1.31</v>
+      </c>
+      <c r="B21">
+        <v>-0.78</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.65920000000000001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>4</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.35</v>
+      </c>
+      <c r="B22">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.6532</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>7</v>
+      </c>
+      <c r="S22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1.48</v>
+      </c>
+      <c r="B23">
+        <v>-1.31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.554</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1.57</v>
+      </c>
+      <c r="B24">
+        <v>-1.35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>9</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>7</v>
+      </c>
+      <c r="S24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1.55</v>
+      </c>
+      <c r="B25">
+        <v>-1.48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.958</v>
+      </c>
+      <c r="M25" s="1">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>6</v>
+      </c>
+      <c r="S25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1.3</v>
+      </c>
+      <c r="B26">
+        <v>-1.57</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>8</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>6</v>
+      </c>
+      <c r="S26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1.07</v>
+      </c>
+      <c r="B27">
+        <v>-1.55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2</v>
+      </c>
+      <c r="R27" s="4">
+        <v>5</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-0.98</v>
+      </c>
+      <c r="B28">
+        <v>-1.3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="M28" s="1">
+        <v>12</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4">
+        <v>6</v>
+      </c>
+      <c r="S28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1.02</v>
+      </c>
+      <c r="B29">
+        <v>-1.07</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.361</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>5</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.04</v>
+      </c>
+      <c r="B30">
+        <v>-0.98</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>9</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.6552</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="M30" s="1">
+        <v>6</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>5</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B31">
+        <v>-1.02</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>14</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="M31" s="1">
+        <v>8</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>9</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="B32">
+        <v>-1.04</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="M32" s="1">
+        <v>11</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2</v>
+      </c>
+      <c r="P32" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>2</v>
+      </c>
+      <c r="R32" s="4">
+        <v>6</v>
+      </c>
+      <c r="S32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="B33">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="M33" s="1">
+        <v>6</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>5</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.26</v>
+      </c>
+      <c r="B34">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>14</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>3</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>3</v>
+      </c>
+      <c r="R34" s="4">
+        <v>6</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1.46</v>
+      </c>
+      <c r="B35">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.389</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>3</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>6</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.65</v>
+      </c>
+      <c r="B36">
+        <v>-1.26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>5</v>
+      </c>
+      <c r="S36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-1.66</v>
+      </c>
+      <c r="B37">
+        <v>-1.46</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.097</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>3</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1.41</v>
+      </c>
+      <c r="B38">
+        <v>-1.65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.62839999999999996</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.119</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>4</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1.07</v>
+      </c>
+      <c r="B39">
+        <v>-1.66</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="M39" s="1">
+        <v>5</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>4</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-0.81</v>
+      </c>
+      <c r="B40">
+        <v>-1.41</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>4</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-0.71</v>
+      </c>
+      <c r="B41">
+        <v>-1.07</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1.915</v>
+      </c>
+      <c r="M41" s="1">
+        <v>9</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>8</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-0.64</v>
+      </c>
+      <c r="B42">
+        <v>-0.81</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.7631</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1.623</v>
+      </c>
+      <c r="M42" s="1">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>5</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="B43">
+        <v>-0.71</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.599</v>
+      </c>
+      <c r="M43" s="1">
+        <v>8</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>5</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-0.51</v>
+      </c>
+      <c r="B44">
+        <v>-0.64</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>11</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1.653</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>2</v>
+      </c>
+      <c r="R44" s="4">
+        <v>5</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="B45">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="M45" s="1">
+        <v>8</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>7</v>
+      </c>
+      <c r="S45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-0.63</v>
+      </c>
+      <c r="B46">
+        <v>-0.51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="M46" s="1">
+        <v>8</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>2</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>5</v>
+      </c>
+      <c r="S46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-0.75</v>
+      </c>
+      <c r="B47">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>10</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
+        <v>5</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-0.74</v>
+      </c>
+      <c r="B48">
+        <v>-0.63</v>
+      </c>
+      <c r="C48" s="1">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.365</v>
+      </c>
+      <c r="M48" s="1">
+        <v>4</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <v>4</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.68</v>
+      </c>
+      <c r="B49">
+        <v>-0.75</v>
+      </c>
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="M49" s="1">
+        <v>9</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+      <c r="R49" s="4">
+        <v>5</v>
+      </c>
+      <c r="S49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.52</v>
+      </c>
+      <c r="B50">
+        <v>-0.74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>8</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.248</v>
+      </c>
+      <c r="M50" s="1">
+        <v>5</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
+        <v>6</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.44</v>
+      </c>
+      <c r="B51">
+        <v>-0.68</v>
+      </c>
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>12</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="M51" s="1">
+        <v>8</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2</v>
+      </c>
+      <c r="O51" s="4">
+        <v>2</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>2</v>
+      </c>
+      <c r="R51" s="4">
+        <v>5</v>
+      </c>
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.34</v>
+      </c>
+      <c r="B52">
+        <v>-0.52</v>
+      </c>
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1.427</v>
+      </c>
+      <c r="M52" s="1">
+        <v>6</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>2</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4">
+        <v>4</v>
+      </c>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.25</v>
+      </c>
+      <c r="B53">
+        <v>-0.44</v>
+      </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="M53" s="1">
+        <v>5</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>4</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.12</v>
+      </c>
+      <c r="B54">
+        <v>-0.34</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>13</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="M54" s="1">
+        <v>10</v>
+      </c>
+      <c r="N54" s="4">
+        <v>3</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <v>6</v>
+      </c>
+      <c r="S54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.08</v>
+      </c>
+      <c r="B55">
+        <v>-0.25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>6</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="M55" s="1">
+        <v>3</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>5</v>
+      </c>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.13</v>
+      </c>
+      <c r="B56">
+        <v>-0.12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>8</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1.732</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>4</v>
+      </c>
+      <c r="S56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-0.19</v>
+      </c>
+      <c r="B57">
+        <v>-0.08</v>
+      </c>
+      <c r="C57" s="1">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>9</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.788</v>
+      </c>
+      <c r="M57" s="1">
+        <v>7</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <v>4</v>
+      </c>
+      <c r="S57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="B58">
+        <v>-0.13</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>12</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="M58" s="1">
+        <v>8</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>6</v>
+      </c>
+      <c r="S58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-0.35</v>
+      </c>
+      <c r="B59">
+        <v>-0.19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="M59" s="1">
+        <v>7</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>1</v>
+      </c>
+      <c r="R59" s="4">
+        <v>6</v>
+      </c>
+      <c r="S59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.31</v>
+      </c>
+      <c r="B60">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1.345</v>
+      </c>
+      <c r="M60" s="1">
+        <v>3</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>4</v>
+      </c>
+      <c r="S60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.15</v>
+      </c>
+      <c r="B61">
+        <v>-0.35</v>
+      </c>
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>6</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.6462</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1.339</v>
+      </c>
+      <c r="M61" s="1">
+        <v>4</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>4</v>
+      </c>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.03</v>
+      </c>
+      <c r="B62">
+        <v>-0.31</v>
+      </c>
+      <c r="C62" s="1">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1">
+        <v>11</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1.702</v>
+      </c>
+      <c r="M62" s="1">
+        <v>8</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>2</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>2</v>
+      </c>
+      <c r="R62" s="4">
+        <v>5</v>
+      </c>
+      <c r="S62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.09</v>
+      </c>
+      <c r="B63">
+        <v>-0.15</v>
+      </c>
+      <c r="C63" s="1">
+        <v>62</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>9</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="M63" s="1">
+        <v>5</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>1</v>
+      </c>
+      <c r="R63" s="4">
+        <v>6</v>
+      </c>
+      <c r="S63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.2</v>
+      </c>
+      <c r="B64">
+        <v>0.03</v>
+      </c>
+      <c r="C64" s="1">
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>16</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="M64" s="1">
+        <v>11</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>2</v>
+      </c>
+      <c r="R64" s="4">
+        <v>7</v>
+      </c>
+      <c r="S64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.43</v>
+      </c>
+      <c r="B65">
+        <v>0.09</v>
+      </c>
+      <c r="C65" s="1">
+        <v>64</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="M65" s="1">
+        <v>12</v>
+      </c>
+      <c r="N65" s="4">
+        <v>2</v>
+      </c>
+      <c r="O65" s="4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>3</v>
+      </c>
+      <c r="R65" s="4">
+        <v>6</v>
+      </c>
+      <c r="S65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.65</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>65</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>10</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="M66" s="1">
+        <v>6</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <v>6</v>
+      </c>
+      <c r="S66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.79</v>
+      </c>
+      <c r="B67">
+        <v>0.43</v>
+      </c>
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>11</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1.879</v>
+      </c>
+      <c r="M67" s="1">
+        <v>7</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>2</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>6</v>
+      </c>
+      <c r="S67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.86</v>
+      </c>
+      <c r="B68">
+        <v>0.65</v>
+      </c>
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="1">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>14</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="M68" s="1">
+        <v>9</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4">
+        <v>2</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4">
+        <v>7</v>
+      </c>
+      <c r="S68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.01</v>
+      </c>
+      <c r="B69">
+        <v>0.79</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1.879</v>
+      </c>
+      <c r="M69" s="1">
+        <v>6</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>6</v>
+      </c>
+      <c r="S69" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.21</v>
+      </c>
+      <c r="B70">
+        <v>0.86</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>13</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1.889</v>
+      </c>
+      <c r="M70" s="1">
+        <v>9</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>2</v>
+      </c>
+      <c r="R70" s="4">
+        <v>6</v>
+      </c>
+      <c r="S70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.31</v>
+      </c>
+      <c r="B71">
+        <v>1.01</v>
+      </c>
+      <c r="C71" s="1">
+        <v>70</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>12</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M71" s="1">
+        <v>7</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>3</v>
+      </c>
+      <c r="R71" s="4">
+        <v>6</v>
+      </c>
+      <c r="S71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B72">
+        <v>1.21</v>
+      </c>
+      <c r="C72" s="1">
+        <v>71</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>9</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="M72" s="1">
+        <v>6</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
+        <v>5</v>
+      </c>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.92</v>
+      </c>
+      <c r="B73">
+        <v>1.31</v>
+      </c>
+      <c r="C73" s="1">
+        <v>72</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3</v>
+      </c>
+      <c r="J73" s="1">
+        <v>17</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="M73" s="1">
+        <v>12</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4">
+        <v>3</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>2</v>
+      </c>
+      <c r="R73" s="4">
+        <v>7</v>
+      </c>
+      <c r="S73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.63</v>
+      </c>
+      <c r="B74">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="3">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>20</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1.681</v>
+      </c>
+      <c r="M74" s="1">
+        <v>14</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>4</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>2</v>
+      </c>
+      <c r="R74" s="4">
+        <v>7</v>
+      </c>
+      <c r="S74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.38</v>
+      </c>
+      <c r="B75">
+        <v>0.92</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>8</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="M75" s="1">
+        <v>4</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>5</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.04</v>
+      </c>
+      <c r="B76">
+        <v>0.63</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>12</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.4178</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="M76" s="1">
+        <v>6</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>2</v>
+      </c>
+      <c r="R76" s="4">
+        <v>6</v>
+      </c>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-0.26</v>
+      </c>
+      <c r="B77">
+        <v>0.38</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>6</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>4</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-0.16</v>
+      </c>
+      <c r="B78">
+        <v>-0.04</v>
+      </c>
+      <c r="C78" s="1">
+        <v>77</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="3">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>12</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.6613</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="M78" s="1">
+        <v>7</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>2</v>
+      </c>
+      <c r="R78" s="4">
+        <v>6</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.08</v>
+      </c>
+      <c r="B79">
+        <v>-0.26</v>
+      </c>
+      <c r="C79" s="1">
+        <v>78</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>7</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1.119</v>
+      </c>
+      <c r="M79" s="1">
+        <v>4</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <v>5</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.21</v>
+      </c>
+      <c r="B80">
+        <v>-0.16</v>
+      </c>
+      <c r="C80" s="1">
+        <v>79</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>13</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="M80" s="1">
+        <v>9</v>
+      </c>
+      <c r="N80" s="4">
+        <v>2</v>
+      </c>
+      <c r="O80" s="4">
+        <v>2</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4">
+        <v>6</v>
+      </c>
+      <c r="S80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.26</v>
+      </c>
+      <c r="B81">
+        <v>0.08</v>
+      </c>
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1.748</v>
+      </c>
+      <c r="M81" s="1">
+        <v>5</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>1</v>
+      </c>
+      <c r="R81" s="4">
+        <v>5</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B82">
+        <v>0.21</v>
+      </c>
+      <c r="C82" s="1">
+        <v>81</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="3">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="M82" s="1">
+        <v>8</v>
+      </c>
+      <c r="N82" s="4">
+        <v>2</v>
+      </c>
+      <c r="O82" s="4">
+        <v>2</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>1</v>
+      </c>
+      <c r="R82" s="4">
+        <v>6</v>
+      </c>
+      <c r="S82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.35</v>
+      </c>
+      <c r="B83">
+        <v>0.26</v>
+      </c>
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>8</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="M83" s="1">
+        <v>4</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4">
+        <v>6</v>
+      </c>
+      <c r="S83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.35</v>
+      </c>
+      <c r="B84">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <v>15</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="M84" s="1">
+        <v>10</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>2</v>
+      </c>
+      <c r="R84" s="4">
+        <v>7</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.37</v>
+      </c>
+      <c r="B85">
+        <v>0.35</v>
+      </c>
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>10</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1.669</v>
+      </c>
+      <c r="M85" s="1">
+        <v>5</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1</v>
+      </c>
+      <c r="R85" s="4">
+        <v>6</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.31</v>
+      </c>
+      <c r="B86">
+        <v>0.35</v>
+      </c>
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="3">
+        <v>5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>3</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
+      </c>
+      <c r="J86" s="1">
+        <v>11</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1.837</v>
+      </c>
+      <c r="M86" s="1">
+        <v>7</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>2</v>
+      </c>
+      <c r="R86" s="4">
+        <v>7</v>
+      </c>
+      <c r="S86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.23</v>
+      </c>
+      <c r="B87">
+        <v>0.37</v>
+      </c>
+      <c r="C87" s="1">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="1">
+        <v>9</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>19</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="L87" s="1">
+        <v>2.266</v>
+      </c>
+      <c r="M87" s="1">
+        <v>12</v>
+      </c>
+      <c r="N87" s="4">
+        <v>1</v>
+      </c>
+      <c r="O87" s="4">
+        <v>2</v>
+      </c>
+      <c r="P87" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>3</v>
+      </c>
+      <c r="R87" s="4">
+        <v>6</v>
+      </c>
+      <c r="S87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B88">
+        <v>0.17</v>
+      </c>
+      <c r="C88" s="1">
+        <v>89</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>9</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.8014</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="M88" s="1">
+        <v>5</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="4">
+        <v>6</v>
+      </c>
+      <c r="S88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.67</v>
+      </c>
+      <c r="B89">
+        <v>0.64</v>
+      </c>
+      <c r="C89" s="1">
+        <v>93</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>14</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="M89" s="1">
+        <v>8</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1</v>
+      </c>
+      <c r="O89" s="4">
+        <v>1</v>
+      </c>
+      <c r="P89" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4">
+        <v>7</v>
+      </c>
+      <c r="S89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.45</v>
+      </c>
+      <c r="B90">
+        <v>0.64</v>
+      </c>
+      <c r="C90" s="1">
+        <v>98</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>11</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.7712</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="M90" s="1">
+        <v>7</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4">
+        <v>7</v>
+      </c>
+      <c r="S90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.11</v>
+      </c>
+      <c r="B91">
+        <v>0.43</v>
+      </c>
+      <c r="C91" s="1">
+        <v>101</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>14</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="M91" s="1">
+        <v>10</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>3</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>2</v>
+      </c>
+      <c r="R91" s="4">
+        <v>7</v>
+      </c>
+      <c r="S91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="B92">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C92" s="1">
+        <v>105</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>11</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="M92" s="1">
+        <v>7</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+      <c r="O92" s="4">
+        <v>2</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>1</v>
+      </c>
+      <c r="R92" s="4">
+        <v>6</v>
+      </c>
+      <c r="S92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="B93">
+        <v>-0.85</v>
+      </c>
+      <c r="C93" s="1">
+        <v>110</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1">
+        <v>14</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.6452</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1.575</v>
+      </c>
+      <c r="M93" s="1">
+        <v>10</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1</v>
+      </c>
+      <c r="O93" s="4">
+        <v>2</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>2</v>
+      </c>
+      <c r="R93" s="4">
+        <v>8</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.03</v>
+      </c>
+      <c r="B94">
+        <v>-0.37</v>
+      </c>
+      <c r="C94" s="1">
+        <v>113</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>9</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1.347</v>
+      </c>
+      <c r="M94" s="1">
+        <v>5</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>1</v>
+      </c>
+      <c r="R94" s="4">
+        <v>6</v>
+      </c>
+      <c r="S94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.77</v>
+      </c>
+      <c r="B95">
+        <v>0.3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>118</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>10</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1.647</v>
+      </c>
+      <c r="M95" s="1">
+        <v>6</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4">
+        <v>7</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.12</v>
+      </c>
+      <c r="B96">
+        <v>0.66</v>
+      </c>
+      <c r="C96" s="1">
+        <v>122</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>3</v>
+      </c>
+      <c r="J96" s="1">
+        <v>11</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="M96" s="1">
+        <v>7</v>
+      </c>
+      <c r="N96" s="4">
+        <v>1</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>2</v>
+      </c>
+      <c r="R96" s="4">
+        <v>6</v>
+      </c>
+      <c r="S96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.47</v>
+      </c>
+      <c r="B97">
+        <v>-0.32</v>
+      </c>
+      <c r="C97" s="1">
+        <v>125</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>12</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1.647</v>
+      </c>
+      <c r="M97" s="1">
+        <v>7</v>
+      </c>
+      <c r="N97" s="4">
+        <v>1</v>
+      </c>
+      <c r="O97" s="4">
+        <v>3</v>
+      </c>
+      <c r="P97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>1</v>
+      </c>
+      <c r="R97" s="4">
+        <v>5</v>
+      </c>
+      <c r="S97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-1.34</v>
+      </c>
+      <c r="B98">
+        <v>-0.81</v>
+      </c>
+      <c r="C98" s="1">
+        <v>129</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="3">
+        <v>5</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>8</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="M98" s="1">
+        <v>5</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="4">
+        <v>1</v>
+      </c>
+      <c r="P98" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>0</v>
+      </c>
+      <c r="R98" s="4">
+        <v>5</v>
+      </c>
+      <c r="S98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-1.29</v>
+      </c>
+      <c r="B99">
+        <v>-1.64</v>
+      </c>
+      <c r="C99" s="1">
+        <v>134</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="1">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>9</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.8196</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M99" s="1">
+        <v>6</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>0</v>
+      </c>
+      <c r="R99" s="4">
+        <v>6</v>
+      </c>
+      <c r="S99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-0.61</v>
+      </c>
+      <c r="B100">
+        <v>-1.01</v>
+      </c>
+      <c r="C100" s="1">
+        <v>137</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="1">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>16</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1.901</v>
+      </c>
+      <c r="M100" s="1">
+        <v>12</v>
+      </c>
+      <c r="N100" s="4">
+        <v>1</v>
+      </c>
+      <c r="O100" s="4">
+        <v>2</v>
+      </c>
+      <c r="P100" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>1</v>
+      </c>
+      <c r="R100" s="4">
+        <v>8</v>
+      </c>
+      <c r="S100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.35</v>
+      </c>
+      <c r="B101">
+        <v>-0.23</v>
+      </c>
+      <c r="C101" s="1">
+        <v>141</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="1">
+        <v>6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>12</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.7208</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="M101" s="1">
+        <v>9</v>
+      </c>
+      <c r="N101" s="4">
+        <v>1</v>
+      </c>
+      <c r="O101" s="4">
+        <v>1</v>
+      </c>
+      <c r="P101" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>0</v>
+      </c>
+      <c r="R101" s="4">
+        <v>5</v>
+      </c>
+      <c r="S101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.61</v>
+      </c>
+      <c r="B102">
+        <v>-0.85</v>
+      </c>
+      <c r="C102" s="1">
+        <v>146</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>7</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1.387</v>
+      </c>
+      <c r="M102" s="1">
+        <v>4</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>0</v>
+      </c>
+      <c r="R102" s="4">
+        <v>5</v>
+      </c>
+      <c r="S102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B103">
+        <v>-0.33</v>
+      </c>
+      <c r="C103" s="1">
+        <v>149</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>12</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="M103" s="1">
+        <v>8</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>2</v>
+      </c>
+      <c r="R103" s="4">
+        <v>7</v>
+      </c>
+      <c r="S103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.01</v>
+      </c>
+      <c r="B104">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C104" s="1">
+        <v>153</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>5</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="M104" s="1">
+        <v>3</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="4">
+        <v>5</v>
+      </c>
+      <c r="S104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.84</v>
+      </c>
+      <c r="B105">
+        <v>1.5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>158</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="1">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>10</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="M105" s="1">
+        <v>6</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105" s="4">
+        <v>1</v>
+      </c>
+      <c r="P105" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>1</v>
+      </c>
+      <c r="R105" s="4">
+        <v>5</v>
+      </c>
+      <c r="S105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-0.66</v>
+      </c>
+      <c r="B106">
+        <v>0.35</v>
+      </c>
+      <c r="C106" s="1">
+        <v>161</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="3">
+        <v>4</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>6</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="M106" s="1">
+        <v>5</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="4">
+        <v>3</v>
+      </c>
+      <c r="S106" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-1.64</v>
+      </c>
+      <c r="B107">
+        <v>-1.35</v>
+      </c>
+      <c r="C107" s="1">
+        <v>165</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>0</v>
+      </c>
+      <c r="R107" s="4">
+        <v>1</v>
+      </c>
+      <c r="S107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.93</v>
+      </c>
+      <c r="B108">
+        <v>-1.42</v>
+      </c>
+      <c r="C108" s="1">
+        <v>170</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="1">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>11</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="M108" s="1">
+        <v>8</v>
+      </c>
+      <c r="N108" s="4">
+        <v>1</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>0</v>
+      </c>
+      <c r="R108" s="4">
+        <v>7</v>
+      </c>
+      <c r="S108" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.44</v>
+      </c>
+      <c r="B109">
+        <v>-0.73</v>
+      </c>
+      <c r="C109" s="1">
+        <v>173</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>6</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1.405</v>
+      </c>
+      <c r="M109" s="1">
+        <v>3</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+      <c r="P109" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>0</v>
+      </c>
+      <c r="R109" s="4">
+        <v>4</v>
+      </c>
+      <c r="S109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-1.01</v>
+      </c>
+      <c r="B110">
+        <v>-0.62</v>
+      </c>
+      <c r="C110" s="1">
+        <v>177</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>2</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <v>8</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="M110" s="1">
+        <v>5</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>1</v>
+      </c>
+      <c r="R110" s="4">
+        <v>6</v>
+      </c>
+      <c r="S110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.59</v>
+      </c>
+      <c r="B111">
+        <v>-0.86</v>
+      </c>
+      <c r="C111" s="1">
+        <v>182</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1">
+        <v>12</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="L111" s="1">
+        <v>1.514</v>
+      </c>
+      <c r="M111" s="1">
+        <v>9</v>
+      </c>
+      <c r="N111" s="4">
+        <v>1</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>3</v>
+      </c>
+      <c r="R111" s="4">
+        <v>5</v>
+      </c>
+      <c r="S111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-0.01</v>
+      </c>
+      <c r="B112">
+        <v>-0.47</v>
+      </c>
+      <c r="C112" s="1">
+        <v>185</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="1">
+        <v>3</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>5</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="M112" s="1">
+        <v>4</v>
+      </c>
+      <c r="N112" s="4">
+        <v>1</v>
+      </c>
+      <c r="O112" s="4">
+        <v>1</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+      <c r="R112" s="4">
+        <v>3</v>
+      </c>
+      <c r="S112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.27</v>
+      </c>
+      <c r="B113">
+        <v>0.37</v>
+      </c>
+      <c r="C113" s="1">
+        <v>189</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="1">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1">
+        <v>5</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>14</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L113" s="1">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="M113" s="1">
+        <v>10</v>
+      </c>
+      <c r="N113" s="4">
+        <v>1</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>3</v>
+      </c>
+      <c r="R113" s="4">
+        <v>7</v>
+      </c>
+      <c r="S113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-0.34</v>
+      </c>
+      <c r="B114">
+        <v>-0.43</v>
+      </c>
+      <c r="C114" s="1">
+        <v>194</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>5</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1.546</v>
+      </c>
+      <c r="M114" s="1">
+        <v>3</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>0</v>
+      </c>
+      <c r="R114" s="4">
+        <v>5</v>
+      </c>
+      <c r="S114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-0.41</v>
+      </c>
+      <c r="B115">
+        <v>-0.3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>197</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="1">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>7</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1.698</v>
+      </c>
+      <c r="M115" s="1">
+        <v>5</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4">
+        <v>4</v>
+      </c>
+      <c r="S115" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-0.18</v>
+      </c>
+      <c r="B116">
+        <v>-0.32</v>
+      </c>
+      <c r="C116" s="1">
+        <v>201</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1">
+        <v>3</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1">
+        <v>12</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1.889</v>
+      </c>
+      <c r="M116" s="1">
+        <v>9</v>
+      </c>
+      <c r="N116" s="4">
+        <v>1</v>
+      </c>
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>3</v>
+      </c>
+      <c r="R116" s="4">
+        <v>5</v>
+      </c>
+      <c r="S116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-0.27</v>
+      </c>
+      <c r="B117">
+        <v>-0.42</v>
+      </c>
+      <c r="C117" s="1">
+        <v>206</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="1">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>5</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="L117" s="1">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="M117" s="1">
+        <v>2</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>0</v>
+      </c>
+      <c r="R117" s="4">
+        <v>5</v>
+      </c>
+      <c r="S117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.16</v>
+      </c>
+      <c r="B118">
+        <v>0.04</v>
+      </c>
+      <c r="C118" s="1">
+        <v>209</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <v>6</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="L118" s="1">
+        <v>1.583</v>
+      </c>
+      <c r="M118" s="1">
+        <v>4</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>0</v>
+      </c>
+      <c r="R118" s="4">
+        <v>4</v>
+      </c>
+      <c r="S118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.53</v>
+      </c>
+      <c r="B119">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C119" s="1">
+        <v>218</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="1">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>3</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="L119" s="1">
+        <v>1.014</v>
+      </c>
+      <c r="M119" s="1">
+        <v>2</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>0</v>
+      </c>
+      <c r="R119" s="4">
+        <v>2</v>
+      </c>
+      <c r="S119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.18</v>
+      </c>
+      <c r="B120">
+        <v>0.7</v>
+      </c>
+      <c r="C120" s="1">
+        <v>221</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>5</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="L120" s="1">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="M120" s="1">
+        <v>3</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>0</v>
+      </c>
+      <c r="R120" s="4">
+        <v>5</v>
+      </c>
+      <c r="S120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.42</v>
+      </c>
+      <c r="B121">
+        <v>1.86</v>
+      </c>
+      <c r="C121" s="1">
+        <v>225</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>3</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="L121" s="1">
+        <v>1.006</v>
+      </c>
+      <c r="M121" s="1">
+        <v>2</v>
+      </c>
+      <c r="N121" s="4">
+        <v>0</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>0</v>
+      </c>
+      <c r="R121" s="4">
+        <v>3</v>
+      </c>
+      <c r="S121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1.58</v>
+      </c>
+      <c r="B122">
+        <v>2.48</v>
+      </c>
+      <c r="C122" s="1">
+        <v>230</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" s="3">
+        <v>3</v>
+      </c>
+      <c r="F122" s="3">
+        <v>3</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>7</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="L122" s="1">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="M122" s="1">
+        <v>4</v>
+      </c>
+      <c r="N122" s="4">
+        <v>0</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0</v>
+      </c>
+      <c r="P122" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>0</v>
+      </c>
+      <c r="R122" s="4">
+        <v>6</v>
+      </c>
+      <c r="S122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="B123">
+        <v>0.94</v>
+      </c>
+      <c r="C123" s="1">
+        <v>233</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0.7238</v>
+      </c>
+      <c r="L123" s="1">
+        <v>1.333</v>
+      </c>
+      <c r="M123" s="1">
+        <v>3</v>
+      </c>
+      <c r="N123" s="4">
+        <v>0</v>
+      </c>
+      <c r="O123" s="4">
+        <v>0</v>
+      </c>
+      <c r="P123" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>0</v>
+      </c>
+      <c r="R123" s="4">
+        <v>3</v>
+      </c>
+      <c r="S123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-0.69</v>
+      </c>
+      <c r="B124">
+        <v>-0.54</v>
+      </c>
+      <c r="C124" s="1">
+        <v>237</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1">
+        <v>6</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="L124" s="1">
+        <v>1.675</v>
+      </c>
+      <c r="M124" s="1">
+        <v>5</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
+      <c r="O124" s="4">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>0</v>
+      </c>
+      <c r="R124" s="4">
+        <v>4</v>
+      </c>
+      <c r="S124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-0.11</v>
+      </c>
+      <c r="B125">
+        <v>0.15</v>
+      </c>
+      <c r="C125" s="1">
+        <f>C124+94</f>
+        <v>331</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>7</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="L125" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M125" s="1">
+        <v>4</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-0.21</v>
+      </c>
+      <c r="B126">
+        <v>0.04</v>
+      </c>
+      <c r="C126" s="1">
+        <f>C125+1</f>
+        <v>332</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>5</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="M126" s="1">
+        <v>3</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-0.26</v>
+      </c>
+      <c r="B127">
+        <v>-0.11</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" ref="C127:C130" si="0">C126+1</f>
+        <v>333</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="1">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <v>8</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0.8145</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="M127" s="1">
+        <v>5</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-0.37</v>
+      </c>
+      <c r="B128">
+        <v>-0.21</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2</v>
+      </c>
+      <c r="J128" s="1">
+        <v>9</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="M128" s="1">
+        <v>5</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-0.53</v>
+      </c>
+      <c r="B129">
+        <v>-0.26</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>5</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="M129" s="1">
+        <v>4</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-0.59</v>
+      </c>
+      <c r="B130">
+        <v>-0.37</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+      <c r="J130" s="1">
+        <v>6</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1.488</v>
+      </c>
+      <c r="M130" s="1">
+        <v>4</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/laselva.xlsx
+++ b/laselva.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bde8adda742d7e1d/Curriculum/14_ Colaboracion/2023 La Selva LTREB/Long term/laseva_LTREB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AA967756-1AD9-4121-95B1-DAAEA9786B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51192476-2585-47B1-8C7F-C890252EF9EF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{AA967756-1AD9-4121-95B1-DAAEA9786B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01AD0921-D305-479B-9556-63A2755D9DE4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FD2C4922-FF16-43F6-B8CF-6D2FAF45D30C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FD2C4922-FF16-43F6-B8CF-6D2FAF45D30C}"/>
   </bookViews>
   <sheets>
     <sheet name="carapa" sheetId="1" r:id="rId1"/>
     <sheet name="saltito" sheetId="2" r:id="rId2"/>
+    <sheet name="alldata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="156">
   <si>
     <t>ONI-First</t>
   </si>
@@ -489,6 +487,24 @@
   <si>
     <t>Oct-2006</t>
   </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>total_rich</t>
+  </si>
+  <si>
+    <t>carapa</t>
+  </si>
+  <si>
+    <t>saltito</t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +544,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -536,11 +552,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -548,6 +579,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +605,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -606,7 +650,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -712,7 +756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,13 +908,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BC6AF7-68DF-48B7-8965-01C0F909F467}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection sqref="A1:A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.36</v>
       </c>
@@ -994,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -1056,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.28000000000000003</v>
       </c>
@@ -1118,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1180,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -1242,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1304,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.9</v>
       </c>
@@ -1366,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.14</v>
       </c>
@@ -1428,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.33</v>
       </c>
@@ -1490,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.4</v>
       </c>
@@ -1552,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.39</v>
       </c>
@@ -1614,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.2400000000000002</v>
       </c>
@@ -1676,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.93</v>
       </c>
@@ -1738,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.44</v>
       </c>
@@ -1800,7 +1844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.99</v>
       </c>
@@ -1862,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.45</v>
       </c>
@@ -1924,7 +1968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-0.13</v>
       </c>
@@ -1986,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-0.78</v>
       </c>
@@ -2048,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-1.1200000000000001</v>
       </c>
@@ -2110,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-1.31</v>
       </c>
@@ -2172,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1.35</v>
       </c>
@@ -2234,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.48</v>
       </c>
@@ -2296,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.57</v>
       </c>
@@ -2358,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-1.55</v>
       </c>
@@ -2420,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.3</v>
       </c>
@@ -2482,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.07</v>
       </c>
@@ -2544,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-0.98</v>
       </c>
@@ -2606,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.02</v>
       </c>
@@ -2668,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.04</v>
       </c>
@@ -2730,7 +2774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.1000000000000001</v>
       </c>
@@ -2792,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.1100000000000001</v>
       </c>
@@ -2854,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.1599999999999999</v>
       </c>
@@ -2916,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.26</v>
       </c>
@@ -2978,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.46</v>
       </c>
@@ -3040,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.65</v>
       </c>
@@ -3102,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-1.66</v>
       </c>
@@ -3164,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-1.41</v>
       </c>
@@ -3226,7 +3270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-1.07</v>
       </c>
@@ -3288,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-0.81</v>
       </c>
@@ -3350,7 +3394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-0.71</v>
       </c>
@@ -3412,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.64</v>
       </c>
@@ -3474,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-0.55000000000000004</v>
       </c>
@@ -3536,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-0.51</v>
       </c>
@@ -3598,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-0.55000000000000004</v>
       </c>
@@ -3660,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-0.63</v>
       </c>
@@ -3722,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-0.75</v>
       </c>
@@ -3784,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-0.74</v>
       </c>
@@ -3846,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-0.68</v>
       </c>
@@ -3908,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-0.52</v>
       </c>
@@ -3970,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-0.44</v>
       </c>
@@ -4032,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-0.34</v>
       </c>
@@ -4094,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-0.25</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-0.12</v>
       </c>
@@ -4218,7 +4262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-0.08</v>
       </c>
@@ -4280,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-0.13</v>
       </c>
@@ -4342,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-0.19</v>
       </c>
@@ -4404,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-0.28999999999999998</v>
       </c>
@@ -4466,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-0.35</v>
       </c>
@@ -4528,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-0.31</v>
       </c>
@@ -4590,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-0.15</v>
       </c>
@@ -4652,7 +4696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.03</v>
       </c>
@@ -4714,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.09</v>
       </c>
@@ -4776,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.2</v>
       </c>
@@ -4838,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.43</v>
       </c>
@@ -4900,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.65</v>
       </c>
@@ -4962,7 +5006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.79</v>
       </c>
@@ -5024,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.86</v>
       </c>
@@ -5086,7 +5130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.01</v>
       </c>
@@ -5148,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.21</v>
       </c>
@@ -5210,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.31</v>
       </c>
@@ -5272,7 +5316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.1399999999999999</v>
       </c>
@@ -5334,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.92</v>
       </c>
@@ -5396,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.63</v>
       </c>
@@ -5458,7 +5502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.38</v>
       </c>
@@ -5520,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-0.04</v>
       </c>
@@ -5582,7 +5626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-0.26</v>
       </c>
@@ -5644,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-0.16</v>
       </c>
@@ -5706,7 +5750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.08</v>
       </c>
@@ -5768,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.21</v>
       </c>
@@ -5830,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.26</v>
       </c>
@@ -5892,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.28999999999999998</v>
       </c>
@@ -5954,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.35</v>
       </c>
@@ -6016,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.35</v>
       </c>
@@ -6078,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.37</v>
       </c>
@@ -6140,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.31</v>
       </c>
@@ -6202,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.23</v>
       </c>
@@ -6264,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.28000000000000003</v>
       </c>
@@ -6326,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.67</v>
       </c>
@@ -6388,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.45</v>
       </c>
@@ -6450,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.11</v>
       </c>
@@ -6512,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-0.28999999999999998</v>
       </c>
@@ -6574,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-0.56999999999999995</v>
       </c>
@@ -6636,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-0.03</v>
       </c>
@@ -6698,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.77</v>
       </c>
@@ -6760,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-0.12</v>
       </c>
@@ -6822,7 +6866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-0.47</v>
       </c>
@@ -6884,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-1.34</v>
       </c>
@@ -6946,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-1.29</v>
       </c>
@@ -7008,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-0.61</v>
       </c>
@@ -7070,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-0.35</v>
       </c>
@@ -7132,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-0.61</v>
       </c>
@@ -7194,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.28000000000000003</v>
       </c>
@@ -7256,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.01</v>
       </c>
@@ -7318,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.84</v>
       </c>
@@ -7380,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-0.66</v>
       </c>
@@ -7442,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-1.64</v>
       </c>
@@ -7504,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-0.93</v>
       </c>
@@ -7566,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-0.44</v>
       </c>
@@ -7628,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-1.01</v>
       </c>
@@ -7690,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-0.59</v>
       </c>
@@ -7752,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-0.01</v>
       </c>
@@ -7814,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.27</v>
       </c>
@@ -7876,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-0.34</v>
       </c>
@@ -7938,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-0.41</v>
       </c>
@@ -8000,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-0.18</v>
       </c>
@@ -8062,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-0.27</v>
       </c>
@@ -8124,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.16</v>
       </c>
@@ -8186,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.53</v>
       </c>
@@ -8248,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.18</v>
       </c>
@@ -8310,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2.42</v>
       </c>
@@ -8372,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.58</v>
       </c>
@@ -8434,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -8496,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-0.69</v>
       </c>
@@ -8558,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-0.11</v>
       </c>
@@ -8609,7 +8653,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>-0.21</v>
       </c>
@@ -8660,7 +8704,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>-0.26</v>
       </c>
@@ -8711,7 +8755,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>-0.37</v>
       </c>
@@ -8762,7 +8806,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-0.53</v>
       </c>
@@ -8813,7 +8857,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-0.59</v>
       </c>
@@ -8873,13 +8917,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7A707-703E-4E5E-A432-E7BE98A446A2}">
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A130" sqref="A2:A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8938,7 +8982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.36</v>
       </c>
@@ -8997,7 +9041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -9056,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.28000000000000003</v>
       </c>
@@ -9115,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -9174,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -9233,7 +9277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -9292,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.9</v>
       </c>
@@ -9351,7 +9395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.14</v>
       </c>
@@ -9410,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.33</v>
       </c>
@@ -9469,7 +9513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.4</v>
       </c>
@@ -9528,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.39</v>
       </c>
@@ -9587,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.2400000000000002</v>
       </c>
@@ -9646,7 +9690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.93</v>
       </c>
@@ -9705,7 +9749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.44</v>
       </c>
@@ -9764,7 +9808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.99</v>
       </c>
@@ -9823,7 +9867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.45</v>
       </c>
@@ -9882,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-0.13</v>
       </c>
@@ -9941,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-0.78</v>
       </c>
@@ -10000,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-1.1200000000000001</v>
       </c>
@@ -10059,7 +10103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-1.31</v>
       </c>
@@ -10118,7 +10162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1.35</v>
       </c>
@@ -10177,7 +10221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.48</v>
       </c>
@@ -10236,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.57</v>
       </c>
@@ -10295,7 +10339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-1.55</v>
       </c>
@@ -10354,7 +10398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.3</v>
       </c>
@@ -10413,7 +10457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.07</v>
       </c>
@@ -10472,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-0.98</v>
       </c>
@@ -10531,7 +10575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.02</v>
       </c>
@@ -10590,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.04</v>
       </c>
@@ -10649,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.1000000000000001</v>
       </c>
@@ -10708,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.1100000000000001</v>
       </c>
@@ -10767,7 +10811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.1599999999999999</v>
       </c>
@@ -10826,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.26</v>
       </c>
@@ -10885,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.46</v>
       </c>
@@ -10944,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.65</v>
       </c>
@@ -11003,7 +11047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-1.66</v>
       </c>
@@ -11062,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-1.41</v>
       </c>
@@ -11121,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-1.07</v>
       </c>
@@ -11180,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-0.81</v>
       </c>
@@ -11239,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-0.71</v>
       </c>
@@ -11298,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.64</v>
       </c>
@@ -11357,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-0.55000000000000004</v>
       </c>
@@ -11416,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-0.51</v>
       </c>
@@ -11475,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-0.55000000000000004</v>
       </c>
@@ -11534,7 +11578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-0.63</v>
       </c>
@@ -11593,7 +11637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-0.75</v>
       </c>
@@ -11652,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-0.74</v>
       </c>
@@ -11711,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-0.68</v>
       </c>
@@ -11770,7 +11814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-0.52</v>
       </c>
@@ -11829,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-0.44</v>
       </c>
@@ -11888,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-0.34</v>
       </c>
@@ -11947,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-0.25</v>
       </c>
@@ -12006,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-0.12</v>
       </c>
@@ -12065,7 +12109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-0.08</v>
       </c>
@@ -12124,7 +12168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-0.13</v>
       </c>
@@ -12183,7 +12227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-0.19</v>
       </c>
@@ -12242,7 +12286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-0.28999999999999998</v>
       </c>
@@ -12301,7 +12345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-0.35</v>
       </c>
@@ -12360,7 +12404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-0.31</v>
       </c>
@@ -12419,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-0.15</v>
       </c>
@@ -12478,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.03</v>
       </c>
@@ -12537,7 +12581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.09</v>
       </c>
@@ -12596,7 +12640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.2</v>
       </c>
@@ -12655,7 +12699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.43</v>
       </c>
@@ -12714,7 +12758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.65</v>
       </c>
@@ -12773,7 +12817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.79</v>
       </c>
@@ -12832,7 +12876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.86</v>
       </c>
@@ -12891,7 +12935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.01</v>
       </c>
@@ -12950,7 +12994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.21</v>
       </c>
@@ -13009,7 +13053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.31</v>
       </c>
@@ -13068,7 +13112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.1399999999999999</v>
       </c>
@@ -13127,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.92</v>
       </c>
@@ -13186,7 +13230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.63</v>
       </c>
@@ -13245,7 +13289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.38</v>
       </c>
@@ -13304,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-0.04</v>
       </c>
@@ -13363,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-0.26</v>
       </c>
@@ -13422,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-0.16</v>
       </c>
@@ -13481,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.08</v>
       </c>
@@ -13540,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.21</v>
       </c>
@@ -13599,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.26</v>
       </c>
@@ -13658,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.28999999999999998</v>
       </c>
@@ -13717,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.35</v>
       </c>
@@ -13776,7 +13820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.35</v>
       </c>
@@ -13835,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.37</v>
       </c>
@@ -13894,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.31</v>
       </c>
@@ -13953,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.23</v>
       </c>
@@ -14012,7 +14056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.28000000000000003</v>
       </c>
@@ -14071,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.67</v>
       </c>
@@ -14130,7 +14174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.45</v>
       </c>
@@ -14189,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.11</v>
       </c>
@@ -14248,7 +14292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-0.28999999999999998</v>
       </c>
@@ -14307,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-0.56999999999999995</v>
       </c>
@@ -14366,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-0.03</v>
       </c>
@@ -14425,7 +14469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.77</v>
       </c>
@@ -14484,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-0.12</v>
       </c>
@@ -14543,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-0.47</v>
       </c>
@@ -14602,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-1.34</v>
       </c>
@@ -14661,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-1.29</v>
       </c>
@@ -14720,7 +14764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-0.61</v>
       </c>
@@ -14779,7 +14823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-0.35</v>
       </c>
@@ -14838,7 +14882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-0.61</v>
       </c>
@@ -14897,7 +14941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.28000000000000003</v>
       </c>
@@ -14956,7 +15000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.01</v>
       </c>
@@ -15015,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.84</v>
       </c>
@@ -15074,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-0.66</v>
       </c>
@@ -15133,7 +15177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-1.64</v>
       </c>
@@ -15192,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-0.93</v>
       </c>
@@ -15251,7 +15295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-0.44</v>
       </c>
@@ -15310,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-1.01</v>
       </c>
@@ -15369,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-0.59</v>
       </c>
@@ -15428,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-0.01</v>
       </c>
@@ -15487,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.27</v>
       </c>
@@ -15546,7 +15590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-0.34</v>
       </c>
@@ -15605,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-0.41</v>
       </c>
@@ -15664,7 +15708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-0.18</v>
       </c>
@@ -15723,7 +15767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-0.27</v>
       </c>
@@ -15782,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.16</v>
       </c>
@@ -15841,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.53</v>
       </c>
@@ -15900,7 +15944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.18</v>
       </c>
@@ -15959,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2.42</v>
       </c>
@@ -16018,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.58</v>
       </c>
@@ -16077,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -16136,7 +16180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-0.69</v>
       </c>
@@ -16195,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-0.11</v>
       </c>
@@ -16243,7 +16287,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>-0.21</v>
       </c>
@@ -16291,7 +16335,7 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>-0.26</v>
       </c>
@@ -16339,7 +16383,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>-0.37</v>
       </c>
@@ -16387,7 +16431,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-0.53</v>
       </c>
@@ -16435,7 +16479,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-0.59</v>
       </c>
@@ -16486,4 +16530,5199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0CEA41-9ACD-4A90-A177-623C54ADECCC}">
+  <dimension ref="A1:F259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131:F259"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="6">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="6">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="6">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="6">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="6">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="6">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="6">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="6">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="6">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="6">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="6">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="6">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="6">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="6">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="6">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="6">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="6">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="6">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="6">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="6">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="6">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="6">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="6">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="6">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="6">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="6">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="6">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="6">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>-1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="6">
+        <v>41</v>
+      </c>
+      <c r="F34">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="6">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="6">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="6">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="6">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="6">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="6">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="6">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="6">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="6">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="6">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="6">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="6">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="6">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="6">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="6">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="6">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="6">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="6">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="6">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="6">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="6">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="6">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="6">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="6">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="6">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="6">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="6">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="6">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="6">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="6">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="6">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="6">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="6">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="6">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="6">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="6">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="6">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="6">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="6">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="6">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="6">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="6">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="6">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="6">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="6">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="6">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="6">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="6">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="6">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="6">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="6">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="6">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="6">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="6">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="6">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="6">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="6">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="6">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="6">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="6">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="6">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="6">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="6">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="6">
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="6">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="6">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="6">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="6">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="6">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="6">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="6">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="6">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="6">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="6">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="6">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" s="6">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="6">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="6">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="6">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="6">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="6">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="6">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="6">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="6">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="6">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" s="6">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="6">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="6">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="6">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="6">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="6">
+        <v>89</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="6">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="6">
+        <v>93</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="6">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="6">
+        <v>98</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="6">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="6">
+        <v>101</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="6">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="6">
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="6">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="6">
+        <v>110</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="6">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="6">
+        <v>113</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="6">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="6">
+        <v>118</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="6">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="6">
+        <v>122</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="6">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="6">
+        <v>125</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="6">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="6">
+        <v>129</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="6">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="6">
+        <v>134</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="6">
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="6">
+        <v>137</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="6">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="6">
+        <v>141</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" s="6">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="6">
+        <v>146</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="6">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="6">
+        <v>149</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="6">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="6">
+        <v>153</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="6">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="6">
+        <v>158</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E105" s="6">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" s="6">
+        <v>161</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="6">
+        <v>7</v>
+      </c>
+      <c r="F106">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="6">
+        <v>165</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="6">
+        <v>170</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="6">
+        <v>173</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="6">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="6">
+        <v>177</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="6">
+        <v>7</v>
+      </c>
+      <c r="F110">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="6">
+        <v>182</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="6">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="6">
+        <v>185</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="6">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="6">
+        <v>189</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="6">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="6">
+        <v>194</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="6">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="6">
+        <v>197</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="6">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="6">
+        <v>201</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="6">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="6">
+        <v>206</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="6">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="6">
+        <v>209</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="6">
+        <v>218</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="6">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="6">
+        <v>221</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="6">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="6">
+        <v>225</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="6">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="6">
+        <v>230</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="6">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="6">
+        <v>233</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="6">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" s="6">
+        <v>237</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="6">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="6">
+        <v>331</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="6">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="6">
+        <v>332</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" t="s">
+        <v>153</v>
+      </c>
+      <c r="E126" s="6">
+        <v>11</v>
+      </c>
+      <c r="F126">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="6">
+        <v>333</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="6">
+        <v>15</v>
+      </c>
+      <c r="F127">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="6">
+        <v>334</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D128" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="6">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="6">
+        <v>335</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="6">
+        <v>7</v>
+      </c>
+      <c r="F129">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="6">
+        <v>336</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" s="6">
+        <v>13</v>
+      </c>
+      <c r="F130">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" s="6">
+        <v>20</v>
+      </c>
+      <c r="F131">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="6">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="6">
+        <v>23</v>
+      </c>
+      <c r="F132">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="6">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="6">
+        <v>17</v>
+      </c>
+      <c r="F133">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="6">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" s="6">
+        <v>15</v>
+      </c>
+      <c r="F134">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="6">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" s="6">
+        <v>16</v>
+      </c>
+      <c r="F135">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="6">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="6">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="6">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="6">
+        <v>27</v>
+      </c>
+      <c r="F137">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="6">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="6">
+        <v>13</v>
+      </c>
+      <c r="F138">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="6">
+        <v>9</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="6">
+        <v>14</v>
+      </c>
+      <c r="F139">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="6">
+        <v>10</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="6">
+        <v>15</v>
+      </c>
+      <c r="F140">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="6">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" s="6">
+        <v>21</v>
+      </c>
+      <c r="F141">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="6">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="6">
+        <v>17</v>
+      </c>
+      <c r="F142">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="6">
+        <v>13</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="6">
+        <v>19</v>
+      </c>
+      <c r="F143">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="6">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="6">
+        <v>14</v>
+      </c>
+      <c r="F144">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="6">
+        <v>15</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" s="6">
+        <v>19</v>
+      </c>
+      <c r="F145">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="6">
+        <v>16</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" s="6">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="6">
+        <v>17</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" s="6">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="6">
+        <v>18</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="6">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="6">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" s="6">
+        <v>12</v>
+      </c>
+      <c r="F149">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="6">
+        <v>20</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" s="6">
+        <v>7</v>
+      </c>
+      <c r="F150">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="6">
+        <v>21</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" s="6">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="6">
+        <v>22</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="6">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="6">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="6">
+        <v>14</v>
+      </c>
+      <c r="F153">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="6">
+        <v>24</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" s="6">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="6">
+        <v>25</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" s="6">
+        <v>13</v>
+      </c>
+      <c r="F155">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6">
+        <v>26</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="6">
+        <v>9</v>
+      </c>
+      <c r="F156">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="6">
+        <v>27</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E157" s="6">
+        <v>16</v>
+      </c>
+      <c r="F157">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="6">
+        <v>28</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="6">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="6">
+        <v>29</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="6">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" s="6">
+        <v>30</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>153</v>
+      </c>
+      <c r="E160" s="6">
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" s="6">
+        <v>31</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" s="6">
+        <v>16</v>
+      </c>
+      <c r="F161">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" s="6">
+        <v>32</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="6">
+        <v>9</v>
+      </c>
+      <c r="F162">
+        <v>-1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163" s="6">
+        <v>33</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="6">
+        <v>14</v>
+      </c>
+      <c r="F163">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="6">
+        <v>34</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" t="s">
+        <v>153</v>
+      </c>
+      <c r="E164" s="6">
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>155</v>
+      </c>
+      <c r="B165" s="6">
+        <v>35</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>153</v>
+      </c>
+      <c r="E165" s="6">
+        <v>9</v>
+      </c>
+      <c r="F165">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="6">
+        <v>36</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" t="s">
+        <v>153</v>
+      </c>
+      <c r="E166" s="6">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" s="6">
+        <v>37</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>153</v>
+      </c>
+      <c r="E167" s="6">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="6">
+        <v>38</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" t="s">
+        <v>153</v>
+      </c>
+      <c r="E168" s="6">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="6">
+        <v>39</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" t="s">
+        <v>153</v>
+      </c>
+      <c r="E169" s="6">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="6">
+        <v>40</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="6">
+        <v>14</v>
+      </c>
+      <c r="F170">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="6">
+        <v>41</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171" t="s">
+        <v>153</v>
+      </c>
+      <c r="E171" s="6">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="6">
+        <v>42</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D172" t="s">
+        <v>153</v>
+      </c>
+      <c r="E172" s="6">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="6">
+        <v>43</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D173" t="s">
+        <v>153</v>
+      </c>
+      <c r="E173" s="6">
+        <v>11</v>
+      </c>
+      <c r="F173">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="6">
+        <v>44</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>153</v>
+      </c>
+      <c r="E174" s="6">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>155</v>
+      </c>
+      <c r="B175" s="6">
+        <v>45</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" t="s">
+        <v>153</v>
+      </c>
+      <c r="E175" s="6">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="6">
+        <v>46</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" t="s">
+        <v>153</v>
+      </c>
+      <c r="E176" s="6">
+        <v>10</v>
+      </c>
+      <c r="F176">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="6">
+        <v>47</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" t="s">
+        <v>153</v>
+      </c>
+      <c r="E177" s="6">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>155</v>
+      </c>
+      <c r="B178" s="6">
+        <v>48</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178" t="s">
+        <v>153</v>
+      </c>
+      <c r="E178" s="6">
+        <v>12</v>
+      </c>
+      <c r="F178">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="6">
+        <v>49</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>153</v>
+      </c>
+      <c r="E179" s="6">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="6">
+        <v>50</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" s="6">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" s="6">
+        <v>51</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="6">
+        <v>10</v>
+      </c>
+      <c r="F181">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" s="6">
+        <v>52</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" s="6">
+        <v>7</v>
+      </c>
+      <c r="F182">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>155</v>
+      </c>
+      <c r="B183" s="6">
+        <v>53</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D183" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" s="6">
+        <v>13</v>
+      </c>
+      <c r="F183">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>155</v>
+      </c>
+      <c r="B184" s="6">
+        <v>54</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" t="s">
+        <v>153</v>
+      </c>
+      <c r="E184" s="6">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>155</v>
+      </c>
+      <c r="B185" s="6">
+        <v>55</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D185" t="s">
+        <v>153</v>
+      </c>
+      <c r="E185" s="6">
+        <v>8</v>
+      </c>
+      <c r="F185">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>155</v>
+      </c>
+      <c r="B186" s="6">
+        <v>56</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" t="s">
+        <v>153</v>
+      </c>
+      <c r="E186" s="6">
+        <v>9</v>
+      </c>
+      <c r="F186">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" s="6">
+        <v>57</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D187" t="s">
+        <v>153</v>
+      </c>
+      <c r="E187" s="6">
+        <v>12</v>
+      </c>
+      <c r="F187">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>155</v>
+      </c>
+      <c r="B188" s="6">
+        <v>58</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D188" t="s">
+        <v>153</v>
+      </c>
+      <c r="E188" s="6">
+        <v>11</v>
+      </c>
+      <c r="F188">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>155</v>
+      </c>
+      <c r="B189" s="6">
+        <v>59</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D189" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="6">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>155</v>
+      </c>
+      <c r="B190" s="6">
+        <v>60</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" t="s">
+        <v>153</v>
+      </c>
+      <c r="E190" s="6">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>155</v>
+      </c>
+      <c r="B191" s="6">
+        <v>61</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191" t="s">
+        <v>153</v>
+      </c>
+      <c r="E191" s="6">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>155</v>
+      </c>
+      <c r="B192" s="6">
+        <v>62</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D192" t="s">
+        <v>153</v>
+      </c>
+      <c r="E192" s="6">
+        <v>9</v>
+      </c>
+      <c r="F192">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>155</v>
+      </c>
+      <c r="B193" s="6">
+        <v>63</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" s="6">
+        <v>16</v>
+      </c>
+      <c r="F193">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>155</v>
+      </c>
+      <c r="B194" s="6">
+        <v>64</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D194" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="6">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>155</v>
+      </c>
+      <c r="B195" s="6">
+        <v>65</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" t="s">
+        <v>153</v>
+      </c>
+      <c r="E195" s="6">
+        <v>10</v>
+      </c>
+      <c r="F195">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>155</v>
+      </c>
+      <c r="B196" s="6">
+        <v>66</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D196" t="s">
+        <v>153</v>
+      </c>
+      <c r="E196" s="6">
+        <v>11</v>
+      </c>
+      <c r="F196">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>155</v>
+      </c>
+      <c r="B197" s="6">
+        <v>67</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D197" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="6">
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>155</v>
+      </c>
+      <c r="B198" s="6">
+        <v>68</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D198" t="s">
+        <v>153</v>
+      </c>
+      <c r="E198" s="6">
+        <v>10</v>
+      </c>
+      <c r="F198">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>155</v>
+      </c>
+      <c r="B199" s="6">
+        <v>69</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D199" t="s">
+        <v>153</v>
+      </c>
+      <c r="E199" s="6">
+        <v>13</v>
+      </c>
+      <c r="F199">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>155</v>
+      </c>
+      <c r="B200" s="6">
+        <v>70</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D200" t="s">
+        <v>153</v>
+      </c>
+      <c r="E200" s="6">
+        <v>12</v>
+      </c>
+      <c r="F200">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>155</v>
+      </c>
+      <c r="B201" s="6">
+        <v>71</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" t="s">
+        <v>153</v>
+      </c>
+      <c r="E201" s="6">
+        <v>9</v>
+      </c>
+      <c r="F201">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>155</v>
+      </c>
+      <c r="B202" s="6">
+        <v>72</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D202" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" s="6">
+        <v>17</v>
+      </c>
+      <c r="F202">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>155</v>
+      </c>
+      <c r="B203" s="6">
+        <v>73</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" t="s">
+        <v>153</v>
+      </c>
+      <c r="E203" s="6">
+        <v>20</v>
+      </c>
+      <c r="F203">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>155</v>
+      </c>
+      <c r="B204" s="6">
+        <v>74</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D204" t="s">
+        <v>153</v>
+      </c>
+      <c r="E204" s="6">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="6">
+        <v>75</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D205" t="s">
+        <v>153</v>
+      </c>
+      <c r="E205" s="6">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>155</v>
+      </c>
+      <c r="B206" s="6">
+        <v>76</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" t="s">
+        <v>153</v>
+      </c>
+      <c r="E206" s="6">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" s="6">
+        <v>77</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D207" t="s">
+        <v>153</v>
+      </c>
+      <c r="E207" s="6">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>155</v>
+      </c>
+      <c r="B208" s="6">
+        <v>78</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D208" t="s">
+        <v>153</v>
+      </c>
+      <c r="E208" s="6">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>155</v>
+      </c>
+      <c r="B209" s="6">
+        <v>79</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D209" t="s">
+        <v>153</v>
+      </c>
+      <c r="E209" s="6">
+        <v>13</v>
+      </c>
+      <c r="F209">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>155</v>
+      </c>
+      <c r="B210" s="6">
+        <v>80</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D210" t="s">
+        <v>153</v>
+      </c>
+      <c r="E210" s="6">
+        <v>8</v>
+      </c>
+      <c r="F210">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>155</v>
+      </c>
+      <c r="B211" s="6">
+        <v>81</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D211" t="s">
+        <v>153</v>
+      </c>
+      <c r="E211" s="6">
+        <v>13</v>
+      </c>
+      <c r="F211">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>155</v>
+      </c>
+      <c r="B212" s="6">
+        <v>82</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D212" t="s">
+        <v>153</v>
+      </c>
+      <c r="E212" s="6">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" s="6">
+        <v>83</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" t="s">
+        <v>153</v>
+      </c>
+      <c r="E213" s="6">
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" s="6">
+        <v>84</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D214" t="s">
+        <v>153</v>
+      </c>
+      <c r="E214" s="6">
+        <v>10</v>
+      </c>
+      <c r="F214">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="6">
+        <v>85</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D215" t="s">
+        <v>153</v>
+      </c>
+      <c r="E215" s="6">
+        <v>11</v>
+      </c>
+      <c r="F215">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="6">
+        <v>86</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D216" t="s">
+        <v>153</v>
+      </c>
+      <c r="E216" s="6">
+        <v>19</v>
+      </c>
+      <c r="F216">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" s="6">
+        <v>89</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D217" t="s">
+        <v>153</v>
+      </c>
+      <c r="E217" s="6">
+        <v>9</v>
+      </c>
+      <c r="F217">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" s="6">
+        <v>93</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D218" t="s">
+        <v>153</v>
+      </c>
+      <c r="E218" s="6">
+        <v>14</v>
+      </c>
+      <c r="F218">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="6">
+        <v>98</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D219" t="s">
+        <v>153</v>
+      </c>
+      <c r="E219" s="6">
+        <v>11</v>
+      </c>
+      <c r="F219">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="6">
+        <v>101</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D220" t="s">
+        <v>153</v>
+      </c>
+      <c r="E220" s="6">
+        <v>14</v>
+      </c>
+      <c r="F220">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" s="6">
+        <v>105</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D221" t="s">
+        <v>153</v>
+      </c>
+      <c r="E221" s="6">
+        <v>11</v>
+      </c>
+      <c r="F221">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="6">
+        <v>110</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D222" t="s">
+        <v>153</v>
+      </c>
+      <c r="E222" s="6">
+        <v>14</v>
+      </c>
+      <c r="F222">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" s="6">
+        <v>113</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D223" t="s">
+        <v>153</v>
+      </c>
+      <c r="E223" s="6">
+        <v>9</v>
+      </c>
+      <c r="F223">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" s="6">
+        <v>118</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D224" t="s">
+        <v>153</v>
+      </c>
+      <c r="E224" s="6">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225" s="6">
+        <v>122</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D225" t="s">
+        <v>153</v>
+      </c>
+      <c r="E225" s="6">
+        <v>11</v>
+      </c>
+      <c r="F225">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="6">
+        <v>125</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D226" t="s">
+        <v>153</v>
+      </c>
+      <c r="E226" s="6">
+        <v>12</v>
+      </c>
+      <c r="F226">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" s="6">
+        <v>129</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D227" t="s">
+        <v>153</v>
+      </c>
+      <c r="E227" s="6">
+        <v>8</v>
+      </c>
+      <c r="F227">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>155</v>
+      </c>
+      <c r="B228" s="6">
+        <v>134</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" t="s">
+        <v>153</v>
+      </c>
+      <c r="E228" s="6">
+        <v>9</v>
+      </c>
+      <c r="F228">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>155</v>
+      </c>
+      <c r="B229" s="6">
+        <v>137</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" t="s">
+        <v>153</v>
+      </c>
+      <c r="E229" s="6">
+        <v>16</v>
+      </c>
+      <c r="F229">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="6">
+        <v>141</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D230" t="s">
+        <v>153</v>
+      </c>
+      <c r="E230" s="6">
+        <v>12</v>
+      </c>
+      <c r="F230">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>155</v>
+      </c>
+      <c r="B231" s="6">
+        <v>146</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D231" t="s">
+        <v>153</v>
+      </c>
+      <c r="E231" s="6">
+        <v>7</v>
+      </c>
+      <c r="F231">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>155</v>
+      </c>
+      <c r="B232" s="6">
+        <v>149</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D232" t="s">
+        <v>153</v>
+      </c>
+      <c r="E232" s="6">
+        <v>12</v>
+      </c>
+      <c r="F232">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="6">
+        <v>153</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D233" t="s">
+        <v>153</v>
+      </c>
+      <c r="E233" s="6">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>155</v>
+      </c>
+      <c r="B234" s="6">
+        <v>158</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D234" t="s">
+        <v>153</v>
+      </c>
+      <c r="E234" s="6">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" s="6">
+        <v>161</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D235" t="s">
+        <v>153</v>
+      </c>
+      <c r="E235" s="6">
+        <v>6</v>
+      </c>
+      <c r="F235">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>155</v>
+      </c>
+      <c r="B236" s="6">
+        <v>165</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D236" t="s">
+        <v>153</v>
+      </c>
+      <c r="E236" s="6">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>155</v>
+      </c>
+      <c r="B237" s="6">
+        <v>170</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D237" t="s">
+        <v>153</v>
+      </c>
+      <c r="E237" s="6">
+        <v>11</v>
+      </c>
+      <c r="F237">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>155</v>
+      </c>
+      <c r="B238" s="6">
+        <v>173</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D238" t="s">
+        <v>153</v>
+      </c>
+      <c r="E238" s="6">
+        <v>6</v>
+      </c>
+      <c r="F238">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>155</v>
+      </c>
+      <c r="B239" s="6">
+        <v>177</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D239" t="s">
+        <v>153</v>
+      </c>
+      <c r="E239" s="6">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>155</v>
+      </c>
+      <c r="B240" s="6">
+        <v>182</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D240" t="s">
+        <v>153</v>
+      </c>
+      <c r="E240" s="6">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>155</v>
+      </c>
+      <c r="B241" s="6">
+        <v>185</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D241" t="s">
+        <v>153</v>
+      </c>
+      <c r="E241" s="6">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>155</v>
+      </c>
+      <c r="B242" s="6">
+        <v>189</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D242" t="s">
+        <v>153</v>
+      </c>
+      <c r="E242" s="6">
+        <v>14</v>
+      </c>
+      <c r="F242">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>155</v>
+      </c>
+      <c r="B243" s="6">
+        <v>194</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D243" t="s">
+        <v>153</v>
+      </c>
+      <c r="E243" s="6">
+        <v>5</v>
+      </c>
+      <c r="F243">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>155</v>
+      </c>
+      <c r="B244" s="6">
+        <v>197</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D244" t="s">
+        <v>153</v>
+      </c>
+      <c r="E244" s="6">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>155</v>
+      </c>
+      <c r="B245" s="6">
+        <v>201</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D245" t="s">
+        <v>153</v>
+      </c>
+      <c r="E245" s="6">
+        <v>12</v>
+      </c>
+      <c r="F245">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B246" s="6">
+        <v>206</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E246" s="6">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247" s="6">
+        <v>209</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D247" t="s">
+        <v>153</v>
+      </c>
+      <c r="E247" s="6">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>155</v>
+      </c>
+      <c r="B248" s="6">
+        <v>218</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D248" t="s">
+        <v>153</v>
+      </c>
+      <c r="E248" s="6">
+        <v>3</v>
+      </c>
+      <c r="F248">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>155</v>
+      </c>
+      <c r="B249" s="6">
+        <v>221</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D249" t="s">
+        <v>153</v>
+      </c>
+      <c r="E249" s="6">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>155</v>
+      </c>
+      <c r="B250" s="6">
+        <v>225</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D250" t="s">
+        <v>153</v>
+      </c>
+      <c r="E250" s="6">
+        <v>3</v>
+      </c>
+      <c r="F250">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>155</v>
+      </c>
+      <c r="B251" s="6">
+        <v>230</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D251" t="s">
+        <v>153</v>
+      </c>
+      <c r="E251" s="6">
+        <v>7</v>
+      </c>
+      <c r="F251">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>155</v>
+      </c>
+      <c r="B252" s="6">
+        <v>233</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D252" t="s">
+        <v>153</v>
+      </c>
+      <c r="E252" s="6">
+        <v>4</v>
+      </c>
+      <c r="F252">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>155</v>
+      </c>
+      <c r="B253" s="6">
+        <v>237</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D253" t="s">
+        <v>153</v>
+      </c>
+      <c r="E253" s="6">
+        <v>6</v>
+      </c>
+      <c r="F253">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>155</v>
+      </c>
+      <c r="B254" s="6">
+        <v>331</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D254" t="s">
+        <v>153</v>
+      </c>
+      <c r="E254" s="6">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>155</v>
+      </c>
+      <c r="B255" s="6">
+        <v>332</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D255" t="s">
+        <v>153</v>
+      </c>
+      <c r="E255" s="6">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>155</v>
+      </c>
+      <c r="B256" s="6">
+        <v>333</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D256" t="s">
+        <v>153</v>
+      </c>
+      <c r="E256" s="6">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>155</v>
+      </c>
+      <c r="B257" s="6">
+        <v>334</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D257" t="s">
+        <v>153</v>
+      </c>
+      <c r="E257" s="6">
+        <v>9</v>
+      </c>
+      <c r="F257">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>155</v>
+      </c>
+      <c r="B258" s="6">
+        <v>335</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D258" t="s">
+        <v>153</v>
+      </c>
+      <c r="E258" s="6">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>155</v>
+      </c>
+      <c r="B259" s="6">
+        <v>336</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D259" t="s">
+        <v>153</v>
+      </c>
+      <c r="E259" s="6">
+        <v>6</v>
+      </c>
+      <c r="F259">
+        <v>-0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>